--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC04-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC04-Workbook.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-S2024\BUSI201-S2024-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6DDD2-A566-45F4-9E84-55B4DF89A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375270F7-BF63-4234-8907-7ACF242B987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SUM" sheetId="2" r:id="rId2"/>
     <sheet name="ORDER" sheetId="3" r:id="rId3"/>
     <sheet name="RANK" sheetId="5" r:id="rId4"/>
-    <sheet name="TEST" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="187">
   <si>
     <t>Pens</t>
   </si>
@@ -349,72 +348,6 @@
   </si>
   <si>
     <t>Customer 60</t>
-  </si>
-  <si>
-    <t>Applicant 1</t>
-  </si>
-  <si>
-    <t>Applicant 2</t>
-  </si>
-  <si>
-    <t>Applicant 3</t>
-  </si>
-  <si>
-    <t>Applicant 4</t>
-  </si>
-  <si>
-    <t>Applicant 5</t>
-  </si>
-  <si>
-    <t>Applicant 6</t>
-  </si>
-  <si>
-    <t>Applicant 7</t>
-  </si>
-  <si>
-    <t>Applicant 8</t>
-  </si>
-  <si>
-    <t>Applicant 9</t>
-  </si>
-  <si>
-    <t>Applicant 10</t>
-  </si>
-  <si>
-    <t>Applicant 11</t>
-  </si>
-  <si>
-    <t>Applicant 12</t>
-  </si>
-  <si>
-    <t>Applicant 13</t>
-  </si>
-  <si>
-    <t>Applicant 14</t>
-  </si>
-  <si>
-    <t>Applicant ID</t>
-  </si>
-  <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Extra Chance: Applicants within 3 points of the cutoff</t>
-  </si>
-  <si>
-    <t>Passing Criteria: Average of 140 points between the two rounds</t>
-  </si>
-  <si>
-    <t>Extra</t>
   </si>
   <si>
     <t>Student ID</t>
@@ -982,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1068,45 +1001,36 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1425,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036EAC26-EC78-4364-8B5F-73F3544EDD09}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
@@ -1661,24 +1585,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1"/>
@@ -2834,907 +2758,907 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593C2FB3-1DBB-4667-ADBF-71FEBF51550A}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="35" customWidth="1"/>
-    <col min="5" max="8" width="12.81640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" style="35"/>
-    <col min="10" max="10" width="8.90625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="35"/>
+    <col min="1" max="1" width="3.54296875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="30" customWidth="1"/>
+    <col min="5" max="8" width="12.81640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="30"/>
+    <col min="10" max="10" width="8.90625" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="B2" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="31">
         <v>0.1</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="31">
         <v>0.2</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="31">
         <v>0.3</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="31">
         <v>0.4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1" thickTop="1">
-      <c r="B4" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="38">
+      <c r="B4" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="32">
         <v>90</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="32">
         <v>85</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="32">
         <v>55</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="32">
         <v>88</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="32">
         <f>SUMPRODUCT($E$3:$H$3,E4:H4)</f>
         <v>77.7</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1">
-      <c r="B5" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="B5" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="32">
         <v>95</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="32">
         <v>92</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="32">
         <v>80</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="32">
         <v>91</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="32">
         <f>SUMPRODUCT($E$3:$H$3,E5:H5)</f>
         <v>88.300000000000011</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1">
-      <c r="B6" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="B6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="32">
         <v>88</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="32">
         <v>76</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <v>82</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="32">
         <v>79</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="32">
         <f t="shared" ref="I6:I33" si="0">SUMPRODUCT($E$3:$H$3,E6:H6)</f>
         <v>80.199999999999989</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1">
-      <c r="B7" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="B7" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="32">
         <v>92</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="32">
         <v>88</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="32">
         <v>95</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="32">
         <v>99</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="32">
         <f t="shared" si="0"/>
         <v>94.9</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="2:10" ht="20" customHeight="1">
-      <c r="B8" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="B8" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="32">
         <v>89</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="32">
         <v>48</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>86</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="32">
         <v>92</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="32">
         <f t="shared" si="0"/>
         <v>81.099999999999994</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1">
-      <c r="B9" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="B9" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="32">
         <v>91</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="32">
         <v>78</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
         <v>80</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="32">
         <v>87</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="32">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1">
-      <c r="B10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="B10" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="32">
         <v>94</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="32">
         <v>96</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <v>89</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="32">
         <v>94</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="32">
         <f t="shared" si="0"/>
         <v>92.9</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" ht="20" customHeight="1">
-      <c r="B11" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="B11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="32">
         <v>93</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="32">
         <v>85</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <v>87</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="32">
         <v>90</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="32">
         <f t="shared" si="0"/>
         <v>88.4</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1">
-      <c r="B12" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="B12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="32">
         <v>87</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="32">
         <v>62</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <v>84</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="32">
         <v>78</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" ht="20" customHeight="1">
-      <c r="B13" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="B13" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="32">
         <v>90</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="32">
         <v>89</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="32">
         <v>86</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="32">
         <v>91</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="32">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1">
-      <c r="B14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="B14" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="32">
         <v>92</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="32">
         <v>87</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <v>78</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="32">
         <v>85</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="32">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" ht="20" customHeight="1">
-      <c r="B15" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="B15" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="32">
         <v>67</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="32">
         <v>70</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="32">
         <v>54</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="32">
         <v>80</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="32">
         <f t="shared" si="0"/>
         <v>68.900000000000006</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" ht="20" customHeight="1">
-      <c r="B16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="B16" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="32">
         <v>88</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="32">
         <v>75</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="32">
         <v>80</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="32">
         <v>79</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="32">
         <f t="shared" si="0"/>
         <v>79.400000000000006</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" ht="20" customHeight="1">
-      <c r="B17" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="B17" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="32">
         <v>89</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="32">
         <v>93</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="32">
         <v>87</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="32">
         <v>91</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="32">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10" ht="20" customHeight="1">
-      <c r="B18" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="B18" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="32">
         <v>94</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="32">
         <v>88</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="32">
         <v>85</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="32">
         <v>92</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="32">
         <f t="shared" si="0"/>
         <v>89.300000000000011</v>
       </c>
-      <c r="J18" s="42"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1">
-      <c r="B19" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="B19" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="32">
         <v>92</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="32">
         <v>91</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="32">
         <v>88</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="32">
         <v>90</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="32">
         <f t="shared" si="0"/>
         <v>89.8</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:10" ht="20" customHeight="1">
-      <c r="B20" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="B20" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="32">
         <v>91</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="32">
         <v>94</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="32">
         <v>87</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="32">
         <v>93</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="32">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="2:10" ht="20" customHeight="1">
-      <c r="B21" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="B21" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="32">
         <v>87</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="32">
         <v>85</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="32">
         <v>82</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="32">
         <v>86</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="32">
         <f t="shared" si="0"/>
         <v>84.699999999999989</v>
       </c>
-      <c r="J21" s="42"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="2:10" ht="20" customHeight="1">
-      <c r="B22" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="B22" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="32">
         <v>89</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="32">
         <v>92</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="32">
         <v>89</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="32">
         <v>94</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="32">
         <f t="shared" si="0"/>
         <v>91.6</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="2:10" ht="20" customHeight="1">
-      <c r="B23" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="B23" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="32">
         <v>93</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="32">
         <v>87</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="32">
         <v>86</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="32">
         <v>90</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="32">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="2:10" ht="20" customHeight="1">
-      <c r="B24" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="B24" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="32">
         <v>88</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="32">
         <v>78</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="32">
         <v>80</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="32">
         <v>85</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="32">
         <f t="shared" si="0"/>
         <v>82.4</v>
       </c>
-      <c r="J24" s="42"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="2:10" ht="20" customHeight="1">
-      <c r="B25" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="B25" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="32">
         <v>75</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="32">
         <v>69</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="32">
         <v>48</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="32">
         <v>62</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="32">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="J25" s="42"/>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="2:10" ht="20" customHeight="1">
-      <c r="B26" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="B26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="32">
         <v>92</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="32">
         <v>90</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="32">
         <v>88</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="32">
         <v>93</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="32">
         <f t="shared" si="0"/>
         <v>90.800000000000011</v>
       </c>
-      <c r="J26" s="42"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="2:10" ht="20" customHeight="1">
-      <c r="B27" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="B27" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="32">
         <v>90</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="32">
         <v>85</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="32">
         <v>82</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="32">
         <v>89</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="32">
         <f t="shared" si="0"/>
         <v>86.199999999999989</v>
       </c>
-      <c r="J27" s="42"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1">
-      <c r="B28" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="B28" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="32">
         <v>94</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="32">
         <v>94</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="32">
         <v>87</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="32">
         <v>95</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="32">
         <f t="shared" si="0"/>
         <v>92.3</v>
       </c>
-      <c r="J28" s="42"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1">
-      <c r="B29" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="B29" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="32">
         <v>57</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="32">
         <v>88</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="32">
         <v>89</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="32">
         <v>92</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="32">
         <f t="shared" si="0"/>
         <v>86.800000000000011</v>
       </c>
-      <c r="J29" s="42"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="2:10" ht="20" customHeight="1">
-      <c r="B30" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="38">
+      <c r="D30" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="32">
         <v>88</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="32">
         <v>91</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="32">
         <v>84</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="32">
         <v>87</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="32">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="J30" s="42"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="2:10" ht="20" customHeight="1">
-      <c r="B31" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="38">
+      <c r="B31" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="32">
         <v>26</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="32">
         <v>26</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="32">
         <v>57</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="32">
         <v>59</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="32">
         <f t="shared" si="0"/>
         <v>48.5</v>
       </c>
-      <c r="J31" s="42"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="2:10" ht="20" customHeight="1">
-      <c r="B32" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="38">
+      <c r="B32" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="32">
         <v>89</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="32">
         <v>87</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="32">
         <v>86</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32">
         <v>90</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="32">
         <f t="shared" si="0"/>
         <v>88.100000000000009</v>
       </c>
-      <c r="J32" s="42"/>
+      <c r="J32" s="36"/>
     </row>
     <row r="33" spans="2:10" ht="20" customHeight="1">
-      <c r="B33" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="40">
+      <c r="B33" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="34">
         <v>92</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="34">
         <v>86</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="34">
         <v>88</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="34">
         <v>89</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="34">
         <f t="shared" si="0"/>
         <v>88.4</v>
       </c>
-      <c r="J33" s="43"/>
+      <c r="J33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3746,270 +3670,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16143B23-5448-4712-B6AB-DA6EE57B4F83}">
-  <dimension ref="B1:H19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="5.08984375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="13">
-        <v>159</v>
-      </c>
-      <c r="D3" s="13">
-        <v>161</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="13">
-        <v>168</v>
-      </c>
-      <c r="D4" s="13">
-        <v>168</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="13">
-        <v>113</v>
-      </c>
-      <c r="D5" s="13">
-        <v>112</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="13">
-        <v>95</v>
-      </c>
-      <c r="D6" s="13">
-        <v>105</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="13">
-        <v>103</v>
-      </c>
-      <c r="D7" s="13">
-        <v>117</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="13">
-        <v>135</v>
-      </c>
-      <c r="D8" s="13">
-        <v>149</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="13">
-        <v>139</v>
-      </c>
-      <c r="D9" s="13">
-        <v>139</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="13">
-        <v>165</v>
-      </c>
-      <c r="D10" s="13">
-        <v>198</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="13">
-        <v>182</v>
-      </c>
-      <c r="D11" s="13">
-        <v>218</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="13">
-        <v>98</v>
-      </c>
-      <c r="D12" s="13">
-        <v>115</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="13">
-        <v>127</v>
-      </c>
-      <c r="D13" s="13">
-        <v>142</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="13">
-        <v>166</v>
-      </c>
-      <c r="D14" s="13">
-        <v>181</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="13">
-        <v>168</v>
-      </c>
-      <c r="D15" s="13">
-        <v>186</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="13">
-        <v>177</v>
-      </c>
-      <c r="D16" s="13">
-        <v>175</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC04-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC04-Workbook.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-S2024\BUSI201-S2024-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375270F7-BF63-4234-8907-7ACF242B987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29236941-6F78-42FA-80AA-56BEF99FF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SUM" sheetId="2" r:id="rId2"/>
-    <sheet name="ORDER" sheetId="3" r:id="rId3"/>
-    <sheet name="RANK" sheetId="5" r:id="rId4"/>
+    <sheet name="SUM" sheetId="2" r:id="rId1"/>
+    <sheet name="ORDER" sheetId="3" r:id="rId2"/>
+    <sheet name="RANK" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1051,9 +1050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1091,7 +1090,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1197,7 +1196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1339,29 +1338,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036EAC26-EC78-4364-8B5F-73F3544EDD09}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D1BCE2-C980-45AB-A29F-AFF73C7E08D7}">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
@@ -1566,7 +1553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4814-D037-446B-A912-2A77A1F06A88}">
   <dimension ref="B2:G106"/>
   <sheetViews>
@@ -2754,11 +2741,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593C2FB3-1DBB-4667-ADBF-71FEBF51550A}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
